--- a/Evalution/preds_greedy/_parsed_log_data.xlsx
+++ b/Evalution/preds_greedy/_parsed_log_data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="mistral" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="llama3.1-8b-instruct" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="qwen2.5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="phi4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9584,7 +9585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9596,7 +9597,2469 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>preds_ns5_ws3_st20.0_ea1.0_snks0_hopf_False_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>preds_ns5_ws200_st20.0_ea1.0_snks0_hopf_True_type_snapkv_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_st20.0_ea1.0_snks0_hopf_True_type_sum_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_st10.0_ea1.0_snks0_hopf_True_type_h2o_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="3" t="n"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_st20.0_ea1.0_snks0_hopf_True_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>gen_time(s)</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>inp_size</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>out_size</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>resp_len</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>KV_size</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>attn_size</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>total_cache</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>gen_time(s)</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>inp_size</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>out_size</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>resp_len</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>KV_size</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>attn_size</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>total_cache</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>gen_time(s)</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>inp_size</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>out_size</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>resp_len</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>KV_size</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>attn_size</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>total_cache</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>gen_time(s)</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>inp_size</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>out_size</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>resp_len</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
+          <t>KV_size</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>attn_size</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>total_cache</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>gen_time(s)</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t>inp_size</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>out_size</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>resp_len</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>KV_size</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>attn_size</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
+          <t>total_cache</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1738216403.731</v>
+      </c>
+      <c r="C4" t="n">
+        <v>626</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8625</v>
+      </c>
+      <c r="F4" t="n">
+        <v>494.592</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>494.592</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1738213174.704</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>626</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3575</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8625</v>
+      </c>
+      <c r="T4" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U4" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V4" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1738217143.421</v>
+      </c>
+      <c r="X4" t="n">
+        <v>626</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1575</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8625</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1738188348.936</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>626</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>3575</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8625</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>381.3510000705719</v>
+      </c>
+      <c r="C5" t="n">
+        <v>629</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8628</v>
+      </c>
+      <c r="F5" t="n">
+        <v>494.764032</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>494.764032</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>495.7320001125336</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>629</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3572</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8628</v>
+      </c>
+      <c r="T5" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U5" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V5" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W5" t="n">
+        <v>947.4140000343323</v>
+      </c>
+      <c r="X5" t="n">
+        <v>629</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1572</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8628</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>498.6669998168945</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>629</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>3572</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8628</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>390.7249999046326</v>
+      </c>
+      <c r="C6" t="n">
+        <v>628</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8627</v>
+      </c>
+      <c r="F6" t="n">
+        <v>494.706688</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>494.706688</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>497.3769998550415</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>628</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3573</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8627</v>
+      </c>
+      <c r="T6" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U6" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V6" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W6" t="n">
+        <v>945.6689999103546</v>
+      </c>
+      <c r="X6" t="n">
+        <v>628</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1573</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8627</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>394.8600001335144</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>628</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3573</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>7298</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>392.5870001316071</v>
+      </c>
+      <c r="C7" t="n">
+        <v>636</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8635</v>
+      </c>
+      <c r="F7" t="n">
+        <v>495.16544</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>495.16544</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>498.4179999828339</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>636</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3565</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8635</v>
+      </c>
+      <c r="T7" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U7" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V7" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W7" t="n">
+        <v>958.8580000400543</v>
+      </c>
+      <c r="X7" t="n">
+        <v>636</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1565</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8635</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>499.2409999370575</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>636</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>3565</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8635</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>378.9989998340607</v>
+      </c>
+      <c r="C8" t="n">
+        <v>632</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8631</v>
+      </c>
+      <c r="F8" t="n">
+        <v>494.936064</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>494.936064</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>496.0320000648499</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>632</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3569</v>
+      </c>
+      <c r="S8" t="n">
+        <v>8631</v>
+      </c>
+      <c r="T8" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U8" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V8" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W8" t="n">
+        <v>957.8810000419617</v>
+      </c>
+      <c r="X8" t="n">
+        <v>632</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1569</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8631</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>499.0460000038147</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>632</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>3569</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>8631</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>162.8200001716614</v>
+      </c>
+      <c r="C9" t="n">
+        <v>451</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3326</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3777</v>
+      </c>
+      <c r="F9" t="n">
+        <v>216.588288</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>216.588288</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>141.819000005722</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>451</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3326</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3777</v>
+      </c>
+      <c r="T9" t="n">
+        <v>216.588288</v>
+      </c>
+      <c r="U9" t="n">
+        <v>338.4192</v>
+      </c>
+      <c r="V9" t="n">
+        <v>555.007488</v>
+      </c>
+      <c r="W9" t="n">
+        <v>311.5829999446869</v>
+      </c>
+      <c r="X9" t="n">
+        <v>451</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1750</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3785</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>139.9679999351501</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>451</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>3326</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>3777</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>216.588288</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>338.4192</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>555.007488</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>395.6459999084473</v>
+      </c>
+      <c r="C10" t="n">
+        <v>449</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8448</v>
+      </c>
+      <c r="F10" t="n">
+        <v>484.442112</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>484.442112</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>489.5199999809265</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>449</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3752</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8448</v>
+      </c>
+      <c r="T10" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U10" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V10" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W10" t="n">
+        <v>950.1050000190735</v>
+      </c>
+      <c r="X10" t="n">
+        <v>449</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1752</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8448</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>492.8770000934601</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>449</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>3752</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8448</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>390.585000038147</v>
+      </c>
+      <c r="C11" t="n">
+        <v>455</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8454</v>
+      </c>
+      <c r="F11" t="n">
+        <v>484.786176</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>484.786176</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>837.7420001029968</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>455</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3746</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8454</v>
+      </c>
+      <c r="T11" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U11" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V11" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W11" t="n">
+        <v>945.5510001182556</v>
+      </c>
+      <c r="X11" t="n">
+        <v>455</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1746</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8454</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>492.7000000476837</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>455</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>3746</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8454</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>387.635999917984</v>
+      </c>
+      <c r="C12" t="n">
+        <v>450</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8449</v>
+      </c>
+      <c r="F12" t="n">
+        <v>484.499456</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>484.499456</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1120.423999786377</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>450</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3751</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8449</v>
+      </c>
+      <c r="T12" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U12" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V12" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W12" t="n">
+        <v>820.9249999523163</v>
+      </c>
+      <c r="X12" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1751</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>8449</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>494.5939998626709</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>450</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>3751</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8449</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>389.2469999790192</v>
+      </c>
+      <c r="C13" t="n">
+        <v>450</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8449</v>
+      </c>
+      <c r="F13" t="n">
+        <v>484.499456</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>484.499456</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1113.422000169754</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>450</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3751</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8449</v>
+      </c>
+      <c r="T13" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U13" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V13" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W13" t="n">
+        <v>756.6510000228882</v>
+      </c>
+      <c r="X13" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1751</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8449</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>495.2490000724792</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>450</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>3751</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8449</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>391.1310000419617</v>
+      </c>
+      <c r="C14" t="n">
+        <v>776</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8775</v>
+      </c>
+      <c r="F14" t="n">
+        <v>503.1936</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>503.1936</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1169.434000015259</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>776</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3425</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8775</v>
+      </c>
+      <c r="T14" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U14" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V14" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W14" t="n">
+        <v>776.8949999809265</v>
+      </c>
+      <c r="X14" t="n">
+        <v>776</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1425</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>8775</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>503.5609998703003</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>776</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>3425</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>8775</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>366.1500000953674</v>
+      </c>
+      <c r="C15" t="n">
+        <v>777</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8776</v>
+      </c>
+      <c r="F15" t="n">
+        <v>503.250944</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>503.250944</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1188.582999944687</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>777</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3424</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8776</v>
+      </c>
+      <c r="T15" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U15" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V15" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W15" t="n">
+        <v>770.6549999713898</v>
+      </c>
+      <c r="X15" t="n">
+        <v>777</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1424</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>8776</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>503.9070000648499</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>777</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>3424</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>8776</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>388.335000038147</v>
+      </c>
+      <c r="C16" t="n">
+        <v>784</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8783</v>
+      </c>
+      <c r="F16" t="n">
+        <v>503.652352</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>503.652352</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1191.596999883652</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>784</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3417</v>
+      </c>
+      <c r="S16" t="n">
+        <v>8783</v>
+      </c>
+      <c r="T16" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U16" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V16" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W16" t="n">
+        <v>774.805999994278</v>
+      </c>
+      <c r="X16" t="n">
+        <v>784</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1417</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8783</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>504.4300000667572</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>784</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>3417</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>8783</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>383.1870000362396</v>
+      </c>
+      <c r="C17" t="n">
+        <v>774</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8773</v>
+      </c>
+      <c r="F17" t="n">
+        <v>503.078912</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>503.078912</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1128.009000062943</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>774</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3427</v>
+      </c>
+      <c r="S17" t="n">
+        <v>8773</v>
+      </c>
+      <c r="T17" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U17" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V17" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W17" t="n">
+        <v>779.4079999923706</v>
+      </c>
+      <c r="X17" t="n">
+        <v>774</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1427</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>8773</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>503.5929999351501</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>774</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>3427</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>8773</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>358.311999797821</v>
+      </c>
+      <c r="C18" t="n">
+        <v>779</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8778</v>
+      </c>
+      <c r="F18" t="n">
+        <v>503.365632</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>503.365632</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>737.143000125885</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>779</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3422</v>
+      </c>
+      <c r="S18" t="n">
+        <v>8778</v>
+      </c>
+      <c r="T18" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U18" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V18" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W18" t="n">
+        <v>419.5590000152588</v>
+      </c>
+      <c r="X18" t="n">
+        <v>779</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1422</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8778</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>504.1730000972748</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>779</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>3422</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8778</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
+        <v>387.3289999961853</v>
+      </c>
+      <c r="C19" t="n">
+        <v>532</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8531</v>
+      </c>
+      <c r="F19" t="n">
+        <v>489.201664</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>489.201664</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>719.1159999370575</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>532</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3669</v>
+      </c>
+      <c r="S19" t="n">
+        <v>8531</v>
+      </c>
+      <c r="T19" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U19" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V19" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W19" t="n">
+        <v>407.3959999084473</v>
+      </c>
+      <c r="X19" t="n">
+        <v>532</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1669</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>8531</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>495.180999994278</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>532</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>3669</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>8531</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>387.308000087738</v>
+      </c>
+      <c r="C20" t="n">
+        <v>533</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8532</v>
+      </c>
+      <c r="F20" t="n">
+        <v>489.259008</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>489.259008</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>719.5529999732971</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>533</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3668</v>
+      </c>
+      <c r="S20" t="n">
+        <v>8532</v>
+      </c>
+      <c r="T20" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U20" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V20" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W20" t="n">
+        <v>407.4430000782013</v>
+      </c>
+      <c r="X20" t="n">
+        <v>533</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1668</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>8532</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>496.9760000705719</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>533</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>3668</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8532</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="n">
+        <v>362.2969999313354</v>
+      </c>
+      <c r="C21" t="n">
+        <v>534</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8533</v>
+      </c>
+      <c r="F21" t="n">
+        <v>489.316352</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>489.316352</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>725.4749999046326</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>534</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3667</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8533</v>
+      </c>
+      <c r="T21" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U21" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V21" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W21" t="n">
+        <v>407.4049999713898</v>
+      </c>
+      <c r="X21" t="n">
+        <v>534</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1667</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>8533</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>497.6719999313354</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>534</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>3667</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>8533</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" t="n">
+        <v>386.0840001106262</v>
+      </c>
+      <c r="C22" t="n">
+        <v>534</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8533</v>
+      </c>
+      <c r="F22" t="n">
+        <v>489.316352</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>489.316352</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>723.3220000267029</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>534</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3667</v>
+      </c>
+      <c r="S22" t="n">
+        <v>8533</v>
+      </c>
+      <c r="T22" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U22" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V22" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W22" t="n">
+        <v>406.7950000762939</v>
+      </c>
+      <c r="X22" t="n">
+        <v>534</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1667</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>8533</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>689.1929998397827</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>534</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>3667</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>8533</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" t="n">
+        <v>381.8280000686646</v>
+      </c>
+      <c r="C23" t="n">
+        <v>534</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8533</v>
+      </c>
+      <c r="F23" t="n">
+        <v>489.316352</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>489.316352</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>714.5450000762939</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>534</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3667</v>
+      </c>
+      <c r="S23" t="n">
+        <v>8533</v>
+      </c>
+      <c r="T23" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="U23" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="V23" t="n">
+        <v>617.311744</v>
+      </c>
+      <c r="W23" t="n">
+        <v>406.7960000038147</v>
+      </c>
+      <c r="X23" t="n">
+        <v>534</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1667</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>8533</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>883.499008</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>6.902336</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>890.401344</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>727.7030000686646</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>534</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>3667</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8533</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>240.902144</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>376.4096</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>617.311744</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="AD1:AJ1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AC1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_st20.0_ea1.0_snks0_hopf_True_type_sum_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
@@ -9607,7 +12070,7 @@
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_st20.0_ea1.0_snks0_hopf_True_type_sum_fused_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_st10.0_ea1.0_snks0_hopf_True_type_h2o_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="J1" s="1" t="n"/>
@@ -9627,6 +12090,17 @@
       <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws32_st1025.0_ea1.0_snks0_hopf_True_type_snapkv_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -9735,73 +12209,129 @@
           <t>total_cache</t>
         </is>
       </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>gen_time(s)</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>inp_size</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>out_size</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>resp_len</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
+          <t>KV_size</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>attn_size</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>total_cache</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1738254902.243</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3593</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8607</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I4" t="n">
-        <v>1738213174.704</v>
+        <v>1738298970.768</v>
       </c>
       <c r="J4" t="n">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="K4" t="n">
-        <v>3575</v>
+        <v>1593</v>
       </c>
       <c r="L4" t="n">
-        <v>8625</v>
+        <v>8607</v>
       </c>
       <c r="M4" t="n">
-        <v>240.902144</v>
+        <v>1803.0592</v>
       </c>
       <c r="N4" t="n">
-        <v>376.4096</v>
+        <v>14.0864</v>
       </c>
       <c r="O4" t="n">
-        <v>617.311744</v>
+        <v>1817.1456</v>
       </c>
       <c r="P4" t="n">
-        <v>1738188348.936</v>
+        <v>1738260523.303</v>
       </c>
       <c r="Q4" t="n">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="R4" t="n">
-        <v>3575</v>
+        <v>3593</v>
       </c>
       <c r="S4" t="n">
-        <v>8625</v>
+        <v>8607</v>
       </c>
       <c r="T4" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U4" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V4" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1738299403.945</v>
+      </c>
+      <c r="X4" t="n">
+        <v>608</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8607</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7050.8544</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7050.8544</v>
       </c>
     </row>
     <row r="5">
@@ -9809,67 +12339,88 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>799.1879999637604</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3590</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8610</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I5" t="n">
-        <v>495.7320001125336</v>
+        <v>1176.361000061035</v>
       </c>
       <c r="J5" t="n">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="K5" t="n">
-        <v>3572</v>
+        <v>1590</v>
       </c>
       <c r="L5" t="n">
-        <v>8628</v>
+        <v>8610</v>
       </c>
       <c r="M5" t="n">
-        <v>240.902144</v>
+        <v>1803.0592</v>
       </c>
       <c r="N5" t="n">
-        <v>376.4096</v>
+        <v>14.0864</v>
       </c>
       <c r="O5" t="n">
-        <v>617.311744</v>
+        <v>1817.1456</v>
       </c>
       <c r="P5" t="n">
-        <v>498.6669998168945</v>
+        <v>1443.345999956131</v>
       </c>
       <c r="Q5" t="n">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="R5" t="n">
-        <v>3572</v>
+        <v>3590</v>
       </c>
       <c r="S5" t="n">
-        <v>8628</v>
+        <v>8610</v>
       </c>
       <c r="T5" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U5" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V5" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W5" t="n">
+        <v>442.8870000839233</v>
+      </c>
+      <c r="X5" t="n">
+        <v>611</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8610</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7053.312</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7053.312</v>
       </c>
     </row>
     <row r="6">
@@ -9877,67 +12428,88 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>801.6909999847412</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8609</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I6" t="n">
-        <v>497.3769998550415</v>
+        <v>1159.493999958038</v>
       </c>
       <c r="J6" t="n">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="K6" t="n">
-        <v>3573</v>
+        <v>1591</v>
       </c>
       <c r="L6" t="n">
-        <v>8627</v>
+        <v>8609</v>
       </c>
       <c r="M6" t="n">
-        <v>240.902144</v>
+        <v>1803.0592</v>
       </c>
       <c r="N6" t="n">
-        <v>376.4096</v>
+        <v>14.0864</v>
       </c>
       <c r="O6" t="n">
-        <v>617.311744</v>
+        <v>1817.1456</v>
       </c>
       <c r="P6" t="n">
-        <v>394.8600001335144</v>
+        <v>1442.805000066757</v>
       </c>
       <c r="Q6" t="n">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="R6" t="n">
-        <v>3573</v>
+        <v>3591</v>
       </c>
       <c r="S6" t="n">
-        <v>7298</v>
+        <v>8609</v>
       </c>
       <c r="T6" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U6" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V6" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W6" t="n">
+        <v>450.0350000858307</v>
+      </c>
+      <c r="X6" t="n">
+        <v>610</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8609</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7052.4928</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7052.4928</v>
       </c>
     </row>
     <row r="7">
@@ -9945,67 +12517,88 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>802.3069999217987</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3581</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8619</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I7" t="n">
-        <v>498.4179999828339</v>
+        <v>1191.133000135422</v>
       </c>
       <c r="J7" t="n">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="K7" t="n">
-        <v>3565</v>
+        <v>1581</v>
       </c>
       <c r="L7" t="n">
-        <v>8635</v>
+        <v>8619</v>
       </c>
       <c r="M7" t="n">
-        <v>240.902144</v>
+        <v>1803.0592</v>
       </c>
       <c r="N7" t="n">
-        <v>376.4096</v>
+        <v>14.0864</v>
       </c>
       <c r="O7" t="n">
-        <v>617.311744</v>
+        <v>1817.1456</v>
       </c>
       <c r="P7" t="n">
-        <v>499.2409999370575</v>
+        <v>1451.039999961853</v>
       </c>
       <c r="Q7" t="n">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="R7" t="n">
-        <v>3565</v>
+        <v>3581</v>
       </c>
       <c r="S7" t="n">
-        <v>8635</v>
+        <v>8619</v>
       </c>
       <c r="T7" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U7" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V7" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W7" t="n">
+        <v>441.5989999771118</v>
+      </c>
+      <c r="X7" t="n">
+        <v>620</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8619</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7060.6848</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7060.6848</v>
       </c>
     </row>
     <row r="8">
@@ -10013,67 +12606,88 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>797.9690001010895</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3587</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>8613</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1140.681999921799</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1587</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>8613</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P8" t="n">
-        <v>499.0460000038147</v>
+        <v>1462.56200003624</v>
       </c>
       <c r="Q8" t="n">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="R8" t="n">
-        <v>3569</v>
+        <v>3587</v>
       </c>
       <c r="S8" t="n">
-        <v>8631</v>
+        <v>8613</v>
       </c>
       <c r="T8" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U8" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V8" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W8" t="n">
+        <v>443.1389999389648</v>
+      </c>
+      <c r="X8" t="n">
+        <v>614</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8613</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7055.7696</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7055.7696</v>
       </c>
     </row>
     <row r="9">
@@ -10081,67 +12695,88 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>787.0199999809265</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3766</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>8434</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1185.805000066757</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1766</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>8434</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P9" t="n">
-        <v>139.9679999351501</v>
+        <v>1424.095999956131</v>
       </c>
       <c r="Q9" t="n">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="R9" t="n">
-        <v>3326</v>
+        <v>3766</v>
       </c>
       <c r="S9" t="n">
-        <v>3777</v>
+        <v>8434</v>
       </c>
       <c r="T9" t="n">
-        <v>216.588288</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U9" t="n">
-        <v>338.4192</v>
+        <v>1344.32</v>
       </c>
       <c r="V9" t="n">
-        <v>555.007488</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W9" t="n">
+        <v>450.6870000362396</v>
+      </c>
+      <c r="X9" t="n">
+        <v>435</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8434</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6909.1328</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6909.1328</v>
       </c>
     </row>
     <row r="10">
@@ -10149,67 +12784,88 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1283.395999908447</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3769</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>8431</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1180.210999965668</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1769</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>8431</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P10" t="n">
-        <v>492.8770000934601</v>
+        <v>1414.444000005722</v>
       </c>
       <c r="Q10" t="n">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="R10" t="n">
-        <v>3752</v>
+        <v>3769</v>
       </c>
       <c r="S10" t="n">
-        <v>8448</v>
+        <v>8431</v>
       </c>
       <c r="T10" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U10" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V10" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W10" t="n">
+        <v>442.1659998893738</v>
+      </c>
+      <c r="X10" t="n">
+        <v>432</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8431</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6906.6752</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6906.6752</v>
       </c>
     </row>
     <row r="11">
@@ -10217,67 +12873,88 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1442.389000177383</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3762</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8438</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1106.023999929428</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1762</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>8438</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P11" t="n">
-        <v>492.7000000476837</v>
+        <v>1410.43799996376</v>
       </c>
       <c r="Q11" t="n">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="R11" t="n">
-        <v>3746</v>
+        <v>3762</v>
       </c>
       <c r="S11" t="n">
-        <v>8454</v>
+        <v>8438</v>
       </c>
       <c r="T11" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U11" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V11" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W11" t="n">
+        <v>446.6679999828339</v>
+      </c>
+      <c r="X11" t="n">
+        <v>439</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8438</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6912.4096</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6912.4096</v>
       </c>
     </row>
     <row r="12">
@@ -10285,67 +12962,88 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1443.916999816895</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3766</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>8434</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>971.9340000152588</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1766</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>8434</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P12" t="n">
-        <v>494.5939998626709</v>
+        <v>1418.289999961853</v>
       </c>
       <c r="Q12" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="R12" t="n">
-        <v>3751</v>
+        <v>3766</v>
       </c>
       <c r="S12" t="n">
-        <v>8449</v>
+        <v>8434</v>
       </c>
       <c r="T12" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U12" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V12" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W12" t="n">
+        <v>445.3500001430511</v>
+      </c>
+      <c r="X12" t="n">
+        <v>435</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>8434</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6909.1328</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6909.1328</v>
       </c>
     </row>
     <row r="13">
@@ -10353,67 +13051,88 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1445.086000204086</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3768</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8432</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>557.7020001411438</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>8432</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P13" t="n">
-        <v>495.2490000724792</v>
+        <v>1393.403000116348</v>
       </c>
       <c r="Q13" t="n">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="R13" t="n">
-        <v>3751</v>
+        <v>3768</v>
       </c>
       <c r="S13" t="n">
-        <v>8449</v>
+        <v>8432</v>
       </c>
       <c r="T13" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U13" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V13" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W13" t="n">
+        <v>444.0039999485016</v>
+      </c>
+      <c r="X13" t="n">
+        <v>433</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8432</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6907.4944</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6907.4944</v>
       </c>
     </row>
     <row r="14">
@@ -10421,67 +13140,88 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1489.194000005722</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3450</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8750</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>569.4859998226166</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>8750</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P14" t="n">
-        <v>503.5609998703003</v>
+        <v>1432.984999895096</v>
       </c>
       <c r="Q14" t="n">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="R14" t="n">
-        <v>3425</v>
+        <v>3450</v>
       </c>
       <c r="S14" t="n">
-        <v>8775</v>
+        <v>8750</v>
       </c>
       <c r="T14" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U14" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V14" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W14" t="n">
+        <v>459.1749999523163</v>
+      </c>
+      <c r="X14" t="n">
+        <v>751</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>8750</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7168</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7168</v>
       </c>
     </row>
     <row r="15">
@@ -10489,67 +13229,88 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1480.076999902725</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3448</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>8752</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>569.680999994278</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1448</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>8752</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P15" t="n">
-        <v>503.9070000648499</v>
+        <v>1435.185000181198</v>
       </c>
       <c r="Q15" t="n">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="R15" t="n">
-        <v>3424</v>
+        <v>3448</v>
       </c>
       <c r="S15" t="n">
-        <v>8776</v>
+        <v>8752</v>
       </c>
       <c r="T15" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U15" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V15" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W15" t="n">
+        <v>445.7669999599457</v>
+      </c>
+      <c r="X15" t="n">
+        <v>753</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>8752</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>7169.6384</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7169.6384</v>
       </c>
     </row>
     <row r="16">
@@ -10557,67 +13318,88 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1482.533999919891</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3440</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>8760</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>567.0950000286102</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>8760</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P16" t="n">
-        <v>504.4300000667572</v>
+        <v>1445.15299987793</v>
       </c>
       <c r="Q16" t="n">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="R16" t="n">
-        <v>3417</v>
+        <v>3440</v>
       </c>
       <c r="S16" t="n">
-        <v>8783</v>
+        <v>8760</v>
       </c>
       <c r="T16" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U16" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V16" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W16" t="n">
+        <v>443.3600001335144</v>
+      </c>
+      <c r="X16" t="n">
+        <v>761</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8760</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>7176.192</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7176.192</v>
       </c>
     </row>
     <row r="17">
@@ -10625,67 +13407,88 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1466.436000108719</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3448</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8752</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>568.0260000228882</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1448</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>8752</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P17" t="n">
-        <v>503.5929999351501</v>
+        <v>1389.690999984741</v>
       </c>
       <c r="Q17" t="n">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="R17" t="n">
-        <v>3427</v>
+        <v>3448</v>
       </c>
       <c r="S17" t="n">
-        <v>8773</v>
+        <v>8752</v>
       </c>
       <c r="T17" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U17" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V17" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W17" t="n">
+        <v>457.5079998970032</v>
+      </c>
+      <c r="X17" t="n">
+        <v>753</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>8752</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>7169.6384</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7169.6384</v>
       </c>
     </row>
     <row r="18">
@@ -10693,67 +13496,88 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1458.349999904633</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3444</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>8756</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>571.7480001449585</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1444</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>8756</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P18" t="n">
-        <v>504.1730000972748</v>
+        <v>837.449000120163</v>
       </c>
       <c r="Q18" t="n">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="R18" t="n">
-        <v>3422</v>
+        <v>3444</v>
       </c>
       <c r="S18" t="n">
-        <v>8778</v>
+        <v>8756</v>
       </c>
       <c r="T18" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U18" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V18" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W18" t="n">
+        <v>446.0590000152588</v>
+      </c>
+      <c r="X18" t="n">
+        <v>757</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8756</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7172.9152</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7172.9152</v>
       </c>
     </row>
     <row r="19">
@@ -10761,67 +13585,88 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1404.631999969482</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3679</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8521</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>563.4679999351501</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1679</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>8521</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P19" t="n">
-        <v>495.180999994278</v>
+        <v>821.8889999389648</v>
       </c>
       <c r="Q19" t="n">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="R19" t="n">
-        <v>3669</v>
+        <v>3679</v>
       </c>
       <c r="S19" t="n">
-        <v>8531</v>
+        <v>8521</v>
       </c>
       <c r="T19" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U19" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V19" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W19" t="n">
+        <v>447.7569999694824</v>
+      </c>
+      <c r="X19" t="n">
+        <v>522</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>8521</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6980.4032</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>6980.4032</v>
       </c>
     </row>
     <row r="20">
@@ -10829,67 +13674,88 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1408.067000150681</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3678</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>8522</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>565.0090000629425</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1678</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>8522</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P20" t="n">
-        <v>496.9760000705719</v>
+        <v>820.8800001144409</v>
       </c>
       <c r="Q20" t="n">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="R20" t="n">
-        <v>3668</v>
+        <v>3678</v>
       </c>
       <c r="S20" t="n">
-        <v>8532</v>
+        <v>8522</v>
       </c>
       <c r="T20" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U20" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V20" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W20" t="n">
+        <v>445.9479999542236</v>
+      </c>
+      <c r="X20" t="n">
+        <v>523</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>8522</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6981.2224</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6981.2224</v>
       </c>
     </row>
     <row r="21">
@@ -10897,67 +13763,88 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1411.373999834061</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3677</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>8523</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>567.2779998779297</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1677</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>8523</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P21" t="n">
-        <v>497.6719999313354</v>
+        <v>820.3919999599457</v>
       </c>
       <c r="Q21" t="n">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="R21" t="n">
-        <v>3667</v>
+        <v>3677</v>
       </c>
       <c r="S21" t="n">
-        <v>8533</v>
+        <v>8523</v>
       </c>
       <c r="T21" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U21" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V21" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W21" t="n">
+        <v>442.9860000610352</v>
+      </c>
+      <c r="X21" t="n">
+        <v>524</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>8523</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6982.0416</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>6982.0416</v>
       </c>
     </row>
     <row r="22">
@@ -10965,67 +13852,88 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1423.394000053406</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3677</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>8523</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>562.8129999637604</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1677</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>8523</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P22" t="n">
-        <v>689.1929998397827</v>
+        <v>820.4659998416901</v>
       </c>
       <c r="Q22" t="n">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="R22" t="n">
-        <v>3667</v>
+        <v>3677</v>
       </c>
       <c r="S22" t="n">
-        <v>8533</v>
+        <v>8523</v>
       </c>
       <c r="T22" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U22" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V22" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W22" t="n">
+        <v>453.1790001392365</v>
+      </c>
+      <c r="X22" t="n">
+        <v>524</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>8523</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6982.0416</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6982.0416</v>
       </c>
     </row>
     <row r="23">
@@ -11033,74 +13941,96 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1442.828999996185</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3677</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>8523</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1344.32</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2204.6848</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>563.0800001621246</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1677</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>8523</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1803.0592</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>14.0864</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1817.1456</v>
       </c>
       <c r="P23" t="n">
-        <v>727.7030000686646</v>
+        <v>815.2829999923706</v>
       </c>
       <c r="Q23" t="n">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="R23" t="n">
-        <v>3667</v>
+        <v>3677</v>
       </c>
       <c r="S23" t="n">
-        <v>8533</v>
+        <v>8523</v>
       </c>
       <c r="T23" t="n">
-        <v>240.902144</v>
+        <v>860.3647999999999</v>
       </c>
       <c r="U23" t="n">
-        <v>376.4096</v>
+        <v>1344.32</v>
       </c>
       <c r="V23" t="n">
-        <v>617.311744</v>
+        <v>2204.6848</v>
+      </c>
+      <c r="W23" t="n">
+        <v>439.7709999084473</v>
+      </c>
+      <c r="X23" t="n">
+        <v>524</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>7999</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>8523</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>6982.0416</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>6982.0416</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="I1:O1"/>
+    <mergeCell ref="W1:AC1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
